--- a/results/region_sale_summary.xlsx
+++ b/results/region_sale_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,160 +434,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Genre</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Platform</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sales</t>
+          <t>S_Dev</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>60918</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Grand Theft Auto: San Andreas</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PS2</t>
-        </is>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7248</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1395489996</v>
+      </c>
+      <c r="D2" t="n">
+        <v>192534.4917218543</v>
       </c>
       <c r="E2" t="n">
-        <v>2004</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10570000</v>
+        <v>458343.7281277101</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>77420</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Wii Sports</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sports</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Wii</t>
-        </is>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13370</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4719459978</v>
+      </c>
+      <c r="D3" t="n">
+        <v>352988.7792071803</v>
       </c>
       <c r="E3" t="n">
-        <v>2006</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8510000</v>
+        <v>913467.2496383856</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>71348</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gran Turismo 4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Racing</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PS2</t>
-        </is>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10989</v>
+      </c>
+      <c r="C4" t="n">
+        <v>876399999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79752.47966147967</v>
       </c>
       <c r="E4" t="n">
-        <v>2005</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7530000</v>
+        <v>234582.738173165</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>71343</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mario Kart Wii</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Racing</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Wii</t>
-        </is>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11701</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2703569989</v>
+      </c>
+      <c r="D5" t="n">
+        <v>231054.6097769421</v>
       </c>
       <c r="E5" t="n">
-        <v>2008</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3350000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>60915</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grand Theft Auto V</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PS3</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2013</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3120000</v>
+        <v>633098.4135543524</v>
       </c>
     </row>
   </sheetData>
